--- a/OHMS_Excel/OpsCalculationsAnalysis.xlsx
+++ b/OHMS_Excel/OpsCalculationsAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulmoyers/Library/Mobile Documents/com~apple~CloudDocs/Data Science/OHMS_Data-Analysis/OHMS_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96661E83-7B08-0F4F-B2D0-6C0CA77D8788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB7A5C-0427-1248-ADE9-BA1D586E49C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75700" yWindow="1120" windowWidth="34660" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2800" windowWidth="32320" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
   <si>
     <t>ID</t>
   </si>
@@ -1729,12 +1729,6 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>Total Hours Quoted</t>
   </si>
   <si>
@@ -1778,6 +1772,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>2016</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2032,16 +2029,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2063,7 +2060,3033 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="580">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2388,7 +5411,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor rgb="FF000000"/>
@@ -3074,44 +6097,41 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$4:$A$21</c:f>
+              <c:f>Sheet2!$A$4:$A$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Feb</c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mar</c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Apr</c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>May</c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Jun</c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jul</c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Aug</c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Sep</c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Oct</c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3119,19 +6139,19 @@
                   <c:pt idx="0">
                     <c:v>Qtr1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="2">
                     <c:v>Qtr2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="5">
                     <c:v>Qtr3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="8">
                     <c:v>Qtr4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2019</c:v>
+                    <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3139,45 +6159,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$21</c:f>
+              <c:f>Sheet2!$B$4:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2237</c:v>
+                  <c:v>1235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>3231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2244</c:v>
+                  <c:v>4137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237</c:v>
+                  <c:v>3793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>884</c:v>
+                  <c:v>1719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1626</c:v>
+                  <c:v>4918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2426</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1278</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2466</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>569</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,44 +6295,41 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$4:$A$21</c:f>
+              <c:f>Sheet2!$A$4:$A$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Feb</c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mar</c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Apr</c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>May</c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Jun</c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jul</c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Aug</c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Sep</c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Oct</c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3323,19 +6337,19 @@
                   <c:pt idx="0">
                     <c:v>Qtr1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="2">
                     <c:v>Qtr2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="5">
                     <c:v>Qtr3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="8">
                     <c:v>Qtr4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2019</c:v>
+                    <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3343,45 +6357,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$21</c:f>
+              <c:f>Sheet2!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,44 +6493,41 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$4:$A$21</c:f>
+              <c:f>Sheet2!$A$4:$A$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Feb</c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mar</c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Apr</c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>May</c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Jun</c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jul</c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Aug</c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Sep</c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Oct</c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3527,19 +6535,19 @@
                   <c:pt idx="0">
                     <c:v>Qtr1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="2">
                     <c:v>Qtr2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="5">
                     <c:v>Qtr3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="8">
                     <c:v>Qtr4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2019</c:v>
+                    <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3547,45 +6555,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$21</c:f>
+              <c:f>Sheet2!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>584</c:v>
+                  <c:v>392.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.3</c:v>
+                  <c:v>1206.1000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.3</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>551</c:v>
+                  <c:v>1055.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.700000000000003</c:v>
+                  <c:v>810.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>233.5</c:v>
+                  <c:v>545.19999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464.20000000000005</c:v>
+                  <c:v>1568.2000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>428.60000000000008</c:v>
+                  <c:v>442.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>633.49999999999989</c:v>
+                  <c:v>211.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.8</c:v>
+                  <c:v>92.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>595.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>148.69999999999999</c:v>
+                  <c:v>254.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +7654,7 @@
     <cacheField name="fldTotalPeiceCount" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6157"/>
     </cacheField>
-    <cacheField name="fldDate" numFmtId="165">
+    <cacheField name="fldDate" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-02-10T00:00:00" maxDate="2022-08-25T00:00:00" count="306">
         <d v="2016-02-10T00:00:00"/>
         <d v="2016-02-11T00:00:00"/>
@@ -9409,8 +12414,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B398A316-8620-BD4F-A4DD-10D4DB968877}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B398A316-8620-BD4F-A4DD-10D4DB968877}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:D20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -9450,10 +12455,10 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
         <item h="1" x="7"/>
@@ -9467,14 +12472,11 @@
     <field x="6"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="17">
     <i>
-      <x v="4"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i r="2">
@@ -9543,26 +12545,26 @@
     <dataField name="Total Hours Quoted" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="69">
+    <format dxfId="579">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="578">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="577">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="576">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="575">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="574">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="4">
@@ -9575,7 +12577,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="573">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="2">
@@ -9589,7 +12591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="572">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -9604,7 +12606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="571">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -9619,7 +12621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="570">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="3">
@@ -9634,7 +12636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="569">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -9645,7 +12647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="568">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9654,7 +12656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="567">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9663,7 +12665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="566">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9672,7 +12674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="565">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9756,7 +12758,7 @@
     <pivotTable tabId="3" name="PivotTable1"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1416597849">
+    <tabular pivotCacheId="1416597849" showMissing="0">
       <items count="6">
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -9767,6 +12769,11 @@
       </items>
     </tabular>
   </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -9778,10 +12785,10 @@
   <data>
     <tabular pivotCacheId="1416597849">
       <items count="9">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="2"/>
         <i x="3"/>
-        <i x="4" s="1"/>
+        <i x="4"/>
         <i x="5"/>
         <i x="6"/>
         <i x="7"/>
@@ -9790,6 +12797,11 @@
       </items>
     </tabular>
   </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -9801,18 +12813,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A179118A-6C01-3C4C-B9FE-7D91D3FD66DC}" name="Table2" displayName="Table2" ref="A1:F549" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A179118A-6C01-3C4C-B9FE-7D91D3FD66DC}" name="Table2" displayName="Table2" ref="A1:F549" totalsRowShown="0" headerRowDxfId="564" dataDxfId="562" headerRowBorderDxfId="563" tableBorderDxfId="561">
   <autoFilter ref="A1:F549" xr:uid="{A179118A-6C01-3C4C-B9FE-7D91D3FD66DC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F549">
     <sortCondition ref="E1:E549"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E448819C-ED3E-394B-A176-BA8F63CFF852}" name="ID" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{B22E7405-9625-E842-9230-26683701DD7C}" name="fldQuoteNumber" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{3EEBACDA-8CB2-3D43-B6D7-82C763DB6D3F}" name="fldTotalHours" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{74061DED-A1A5-2D48-AADF-01AE177DDF41}" name="fldTotalPeiceCount" dataDxfId="47"/>
-    <tableColumn id="56" xr3:uid="{2CAB17F3-4F97-F646-B5C7-3AA7EA42E237}" name="fldDate" dataDxfId="46"/>
-    <tableColumn id="57" xr3:uid="{BB07EA69-9C5C-9342-9197-37B0DCC466A8}" name="fldTime" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{E448819C-ED3E-394B-A176-BA8F63CFF852}" name="ID" dataDxfId="560"/>
+    <tableColumn id="3" xr3:uid="{B22E7405-9625-E842-9230-26683701DD7C}" name="fldQuoteNumber" dataDxfId="559"/>
+    <tableColumn id="5" xr3:uid="{3EEBACDA-8CB2-3D43-B6D7-82C763DB6D3F}" name="fldTotalHours" dataDxfId="558"/>
+    <tableColumn id="17" xr3:uid="{74061DED-A1A5-2D48-AADF-01AE177DDF41}" name="fldTotalPeiceCount" dataDxfId="557"/>
+    <tableColumn id="56" xr3:uid="{2CAB17F3-4F97-F646-B5C7-3AA7EA42E237}" name="fldDate" dataDxfId="556"/>
+    <tableColumn id="57" xr3:uid="{BB07EA69-9C5C-9342-9197-37B0DCC466A8}" name="fldTime" dataDxfId="555"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10139,10 +13151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F488E680-4E5F-8B47-8A28-BCA832550B2B}">
-  <dimension ref="A3:D71"/>
+  <dimension ref="A3:D96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10837,27 +13849,27 @@
         <v>554</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B4" s="22">
-        <v>14137</v>
+        <v>22652</v>
       </c>
       <c r="C4" s="22">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="D4" s="19">
-        <v>3750.400000000001</v>
+        <v>6692.7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -10865,238 +13877,228 @@
         <v>556</v>
       </c>
       <c r="B5" s="22">
-        <v>2393</v>
+        <v>4466</v>
       </c>
       <c r="C5" s="22">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D5" s="19">
-        <v>638.6</v>
+        <v>1598.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B6" s="22">
-        <v>2237</v>
+        <v>1235</v>
       </c>
       <c r="C6" s="22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="19">
-        <v>584</v>
+        <v>392.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B7" s="22">
-        <v>58</v>
+        <v>3231</v>
       </c>
       <c r="C7" s="22">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D7" s="19">
-        <v>29.3</v>
+        <v>1206.1000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>558</v>
+      <c r="A8" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="B8" s="22">
-        <v>98</v>
+        <v>8315</v>
       </c>
       <c r="C8" s="22">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D8" s="19">
-        <v>25.3</v>
+        <v>1979.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>564</v>
+      <c r="A9" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="B9" s="22">
-        <v>3365</v>
+        <v>385</v>
       </c>
       <c r="C9" s="22">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D9" s="19">
-        <v>823.2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B10" s="22">
-        <v>2244</v>
+        <v>4137</v>
       </c>
       <c r="C10" s="22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="19">
-        <v>551</v>
+        <v>1055.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="22">
+        <v>3793</v>
+      </c>
+      <c r="C11" s="22">
+        <v>7</v>
+      </c>
+      <c r="D11" s="19">
+        <v>810.59999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="B11" s="22">
-        <v>237</v>
-      </c>
-      <c r="C11" s="22">
-        <v>3</v>
-      </c>
-      <c r="D11" s="19">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="B12" s="22">
+        <v>8287</v>
+      </c>
+      <c r="C12" s="22">
+        <v>50</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2556.2000000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="B12" s="22">
-        <v>884</v>
-      </c>
-      <c r="C12" s="22">
-        <v>9</v>
-      </c>
-      <c r="D12" s="19">
-        <v>233.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>568</v>
-      </c>
       <c r="B13" s="22">
-        <v>5330</v>
+        <v>1719</v>
       </c>
       <c r="C13" s="22">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13" s="19">
-        <v>1526.3000000000002</v>
+        <v>545.19999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B14" s="22">
-        <v>1626</v>
+        <v>4918</v>
       </c>
       <c r="C14" s="22">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D14" s="19">
-        <v>464.20000000000005</v>
+        <v>1568.2000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1650</v>
+      </c>
+      <c r="C15" s="22">
+        <v>19</v>
+      </c>
+      <c r="D15" s="19">
+        <v>442.80000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="B15" s="22">
-        <v>2426</v>
-      </c>
-      <c r="C15" s="22">
-        <v>7</v>
-      </c>
-      <c r="D15" s="19">
-        <v>428.60000000000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="22">
+        <v>1584</v>
+      </c>
+      <c r="C16" s="22">
+        <v>32</v>
+      </c>
+      <c r="D16" s="19">
+        <v>557.90000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="B16" s="22">
-        <v>1278</v>
-      </c>
-      <c r="C16" s="22">
-        <v>8</v>
-      </c>
-      <c r="D16" s="19">
-        <v>633.49999999999989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>572</v>
-      </c>
       <c r="B17" s="22">
-        <v>3049</v>
+        <v>470</v>
       </c>
       <c r="C17" s="22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="19">
-        <v>762.3</v>
+        <v>211.3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B18" s="22">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="C18" s="22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" s="19">
-        <v>17.8</v>
+        <v>92.199999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B19" s="22">
-        <v>2466</v>
+        <v>843</v>
       </c>
       <c r="C19" s="22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" s="19">
-        <v>595.79999999999995</v>
+        <v>254.39999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>575</v>
+      <c r="A20" s="18" t="s">
+        <v>555</v>
       </c>
       <c r="B20" s="22">
-        <v>569</v>
+        <v>22652</v>
       </c>
       <c r="C20" s="22">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="D20" s="19">
-        <v>148.69999999999999</v>
+        <v>6692.7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="B21" s="22">
-        <v>14137</v>
-      </c>
-      <c r="C21" s="22">
-        <v>71</v>
-      </c>
-      <c r="D21" s="19">
-        <v>3750.400000000001</v>
-      </c>
+      <c r="B21"/>
+      <c r="C21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22"/>
@@ -11297,6 +14299,106 @@
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71"/>
       <c r="C71"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73"/>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74"/>
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75"/>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77"/>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78"/>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79"/>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81"/>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84"/>
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85"/>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86"/>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87"/>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88"/>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89"/>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90"/>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91"/>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94"/>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95"/>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96"/>
+      <c r="C96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
